--- a/IoT_Node_LoRaWAN/Current Consumption.xlsx
+++ b/IoT_Node_LoRaWAN/Current Consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\WisBlock\IoT_Node_LoRaWAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E988C9E-7ABA-4B84-AD25-34241B428E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB578248-4704-4862-AFF5-26F5545CF3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BCDC60C-FF41-4F3E-94FB-54FF22FF206D}"/>
   </bookViews>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -533,7 +538,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +646,7 @@
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="14">
         <f>($C$5*D9+$C$6*($C$4-D9))/$C$4</f>
         <v>0.87197279999999999</v>
       </c>
@@ -662,7 +667,7 @@
       <c r="E10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <f>($C$5*D10+$C$6*($C$4-D10))/$C$4</f>
         <v>1.1770226399999999</v>
       </c>
